--- a/assets/data/Summary/1642-SiteProgression.xlsx
+++ b/assets/data/Summary/1642-SiteProgression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="969" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1189" uniqueCount="648">
   <si>
     <t>Time</t>
   </si>
@@ -103,6 +103,36 @@
     <t>3.5419 hr</t>
   </si>
   <si>
+    <t>3.5542 hr</t>
+  </si>
+  <si>
+    <t>4.5086 hr</t>
+  </si>
+  <si>
+    <t>3.1678 hr</t>
+  </si>
+  <si>
+    <t>1.5878 hr</t>
+  </si>
+  <si>
+    <t>3.1856 hr</t>
+  </si>
+  <si>
+    <t>2.2981 hr</t>
+  </si>
+  <si>
+    <t>3.1831 hr</t>
+  </si>
+  <si>
+    <t>3.1872 hr</t>
+  </si>
+  <si>
+    <t>2.2908 hr</t>
+  </si>
+  <si>
+    <t>1.7111 hr</t>
+  </si>
+  <si>
     <t>mean_MoveTime</t>
   </si>
   <si>
@@ -175,6 +205,36 @@
     <t>35.419 min</t>
   </si>
   <si>
+    <t>19.386 min</t>
+  </si>
+  <si>
+    <t>45.086 min</t>
+  </si>
+  <si>
+    <t>14.621 min</t>
+  </si>
+  <si>
+    <t>23.817 min</t>
+  </si>
+  <si>
+    <t>15.928 min</t>
+  </si>
+  <si>
+    <t>27.577 min</t>
+  </si>
+  <si>
+    <t>14.691 min</t>
+  </si>
+  <si>
+    <t>14.71 min</t>
+  </si>
+  <si>
+    <t>45.817 min</t>
+  </si>
+  <si>
+    <t>25.667 min</t>
+  </si>
+  <si>
     <t>sum_DrillTime</t>
   </si>
   <si>
@@ -244,6 +304,36 @@
     <t>2.1806 hr</t>
   </si>
   <si>
+    <t>3.4914 hr</t>
+  </si>
+  <si>
+    <t>1.5414 hr</t>
+  </si>
+  <si>
+    <t>4.2322 hr</t>
+  </si>
+  <si>
+    <t>1.5247 hr</t>
+  </si>
+  <si>
+    <t>3.7569 hr</t>
+  </si>
+  <si>
+    <t>1.0661 hr</t>
+  </si>
+  <si>
+    <t>3.8103 hr</t>
+  </si>
+  <si>
+    <t>2.7281 hr</t>
+  </si>
+  <si>
+    <t>0.94361 hr</t>
+  </si>
+  <si>
+    <t>0.83611 hr</t>
+  </si>
+  <si>
     <t>mean_DrillTime</t>
   </si>
   <si>
@@ -313,6 +403,36 @@
     <t>18.69 min</t>
   </si>
   <si>
+    <t>17.457 min</t>
+  </si>
+  <si>
+    <t>13.212 min</t>
+  </si>
+  <si>
+    <t>18.138 min</t>
+  </si>
+  <si>
+    <t>18.297 min</t>
+  </si>
+  <si>
+    <t>17.34 min</t>
+  </si>
+  <si>
+    <t>10.661 min</t>
+  </si>
+  <si>
+    <t>16.33 min</t>
+  </si>
+  <si>
+    <t>11.692 min</t>
+  </si>
+  <si>
+    <t>14.154 min</t>
+  </si>
+  <si>
+    <t>10.033 min</t>
+  </si>
+  <si>
     <t>sum_GroutTime</t>
   </si>
   <si>
@@ -382,6 +502,36 @@
     <t>0.46111 hr</t>
   </si>
   <si>
+    <t>1.5867 hr</t>
+  </si>
+  <si>
+    <t>0.33833 hr</t>
+  </si>
+  <si>
+    <t>1.1861 hr</t>
+  </si>
+  <si>
+    <t>0.28694 hr</t>
+  </si>
+  <si>
+    <t>1.1019 hr</t>
+  </si>
+  <si>
+    <t>0.68417 hr</t>
+  </si>
+  <si>
+    <t>1.1917 hr</t>
+  </si>
+  <si>
+    <t>1.7011 hr</t>
+  </si>
+  <si>
+    <t>0.33667 hr</t>
+  </si>
+  <si>
+    <t>0.64583 hr</t>
+  </si>
+  <si>
     <t>mean_GroutTime</t>
   </si>
   <si>
@@ -451,6 +601,36 @@
     <t>3.9524 min</t>
   </si>
   <si>
+    <t>7.9333 min</t>
+  </si>
+  <si>
+    <t>2.9 min</t>
+  </si>
+  <si>
+    <t>5.0833 min</t>
+  </si>
+  <si>
+    <t>3.4433 min</t>
+  </si>
+  <si>
+    <t>5.0859 min</t>
+  </si>
+  <si>
+    <t>6.8417 min</t>
+  </si>
+  <si>
+    <t>5.1071 min</t>
+  </si>
+  <si>
+    <t>7.2905 min</t>
+  </si>
+  <si>
+    <t>5.05 min</t>
+  </si>
+  <si>
+    <t>7.75 min</t>
+  </si>
+  <si>
     <t>sum_InstallTime</t>
   </si>
   <si>
@@ -520,6 +700,36 @@
     <t>2.7072 hr</t>
   </si>
   <si>
+    <t>5.2211 hr</t>
+  </si>
+  <si>
+    <t>2.0047 hr</t>
+  </si>
+  <si>
+    <t>5.8331 hr</t>
+  </si>
+  <si>
+    <t>1.9578 hr</t>
+  </si>
+  <si>
+    <t>5.3506 hr</t>
+  </si>
+  <si>
+    <t>1.9133 hr</t>
+  </si>
+  <si>
+    <t>5.4322 hr</t>
+  </si>
+  <si>
+    <t>4.7231 hr</t>
+  </si>
+  <si>
+    <t>1.3756 hr</t>
+  </si>
+  <si>
+    <t>1.6208 hr</t>
+  </si>
+  <si>
     <t>mean_InstallTime</t>
   </si>
   <si>
@@ -589,6 +799,36 @@
     <t>23.205 min</t>
   </si>
   <si>
+    <t>26.106 min</t>
+  </si>
+  <si>
+    <t>17.183 min</t>
+  </si>
+  <si>
+    <t>24.999 min</t>
+  </si>
+  <si>
+    <t>23.493 min</t>
+  </si>
+  <si>
+    <t>24.695 min</t>
+  </si>
+  <si>
+    <t>19.133 min</t>
+  </si>
+  <si>
+    <t>23.281 min</t>
+  </si>
+  <si>
+    <t>20.242 min</t>
+  </si>
+  <si>
+    <t>20.633 min</t>
+  </si>
+  <si>
+    <t>19.45 min</t>
+  </si>
+  <si>
     <t>sum_DelayTime</t>
   </si>
   <si>
@@ -655,6 +895,36 @@
     <t>3.0419 hr</t>
   </si>
   <si>
+    <t>2.6375 hr</t>
+  </si>
+  <si>
+    <t>4.0086 hr</t>
+  </si>
+  <si>
+    <t>2.0844 hr</t>
+  </si>
+  <si>
+    <t>1.2544 hr</t>
+  </si>
+  <si>
+    <t>2.1856 hr</t>
+  </si>
+  <si>
+    <t>1.8814 hr</t>
+  </si>
+  <si>
+    <t>2.0997 hr</t>
+  </si>
+  <si>
+    <t>2.1039 hr</t>
+  </si>
+  <si>
+    <t>2.0408 hr</t>
+  </si>
+  <si>
+    <t>1.3778 hr</t>
+  </si>
+  <si>
     <t>mean_DelayTime</t>
   </si>
   <si>
@@ -724,6 +994,36 @@
     <t>30.419 min</t>
   </si>
   <si>
+    <t>14.386 min</t>
+  </si>
+  <si>
+    <t>40.086 min</t>
+  </si>
+  <si>
+    <t>9.6205 min</t>
+  </si>
+  <si>
+    <t>18.817 min</t>
+  </si>
+  <si>
+    <t>10.928 min</t>
+  </si>
+  <si>
+    <t>22.577 min</t>
+  </si>
+  <si>
+    <t>9.691 min</t>
+  </si>
+  <si>
+    <t>9.7103 min</t>
+  </si>
+  <si>
+    <t>40.817 min</t>
+  </si>
+  <si>
+    <t>20.667 min</t>
+  </si>
+  <si>
     <t>sum_CycleTime</t>
   </si>
   <si>
@@ -793,6 +1093,36 @@
     <t>5.8269 hr</t>
   </si>
   <si>
+    <t>8.3736 hr</t>
+  </si>
+  <si>
+    <t>6.1031 hr</t>
+  </si>
+  <si>
+    <t>8.5964 hr</t>
+  </si>
+  <si>
+    <t>3.0586 hr</t>
+  </si>
+  <si>
+    <t>8.1122 hr</t>
+  </si>
+  <si>
+    <t>3.8878 hr</t>
+  </si>
+  <si>
+    <t>8.1939 hr</t>
+  </si>
+  <si>
+    <t>7.5964 hr</t>
+  </si>
+  <si>
+    <t>3.1853 hr</t>
+  </si>
+  <si>
+    <t>2.9981 hr</t>
+  </si>
+  <si>
     <t>mean_CycleTime</t>
   </si>
   <si>
@@ -862,6 +1192,36 @@
     <t>58.269 min</t>
   </si>
   <si>
+    <t>45.674 min</t>
+  </si>
+  <si>
+    <t>61.031 min</t>
+  </si>
+  <si>
+    <t>39.676 min</t>
+  </si>
+  <si>
+    <t>45.879 min</t>
+  </si>
+  <si>
+    <t>40.561 min</t>
+  </si>
+  <si>
+    <t>46.653 min</t>
+  </si>
+  <si>
+    <t>37.818 min</t>
+  </si>
+  <si>
+    <t>35.06 min</t>
+  </si>
+  <si>
+    <t>63.706 min</t>
+  </si>
+  <si>
+    <t>44.971 min</t>
+  </si>
+  <si>
     <t>sum_PileLength</t>
   </si>
   <si>
@@ -946,6 +1306,36 @@
     <t>3.7022 hr</t>
   </si>
   <si>
+    <t>8.7753 hr</t>
+  </si>
+  <si>
+    <t>6.5133 hr</t>
+  </si>
+  <si>
+    <t>3.5456 hr</t>
+  </si>
+  <si>
+    <t>9.0008 hr</t>
+  </si>
+  <si>
+    <t>8.5361 hr</t>
+  </si>
+  <si>
+    <t>4.2114 hr</t>
+  </si>
+  <si>
+    <t>8.6153 hr</t>
+  </si>
+  <si>
+    <t>7.9103 hr</t>
+  </si>
+  <si>
+    <t>3.6664 hr</t>
+  </si>
+  <si>
+    <t>3.3319 hr</t>
+  </si>
+  <si>
     <t>PileWaste</t>
   </si>
   <si>
@@ -991,6 +1381,12 @@
     <t>5.5 hr</t>
   </si>
   <si>
+    <t>13 hr</t>
+  </si>
+  <si>
+    <t>13.5 hr</t>
+  </si>
+  <si>
     <t>RigWaste</t>
   </si>
   <si>
@@ -1057,6 +1453,36 @@
     <t>58.162 hr</t>
   </si>
   <si>
+    <t>5.3606 hr</t>
+  </si>
+  <si>
+    <t>62.67 hr</t>
+  </si>
+  <si>
+    <t>8.5283 hr</t>
+  </si>
+  <si>
+    <t>64.258 hr</t>
+  </si>
+  <si>
+    <t>11.714 hr</t>
+  </si>
+  <si>
+    <t>66.556 hr</t>
+  </si>
+  <si>
+    <t>14.897 hr</t>
+  </si>
+  <si>
+    <t>69.743 hr</t>
+  </si>
+  <si>
+    <t>17.188 hr</t>
+  </si>
+  <si>
+    <t>71.454 hr</t>
+  </si>
+  <si>
     <t>HoursDrilled</t>
   </si>
   <si>
@@ -1120,6 +1546,36 @@
     <t>86.875 hr</t>
   </si>
   <si>
+    <t>4.6592 hr</t>
+  </si>
+  <si>
+    <t>88.417 hr</t>
+  </si>
+  <si>
+    <t>8.8914 hr</t>
+  </si>
+  <si>
+    <t>89.941 hr</t>
+  </si>
+  <si>
+    <t>12.648 hr</t>
+  </si>
+  <si>
+    <t>91.008 hr</t>
+  </si>
+  <si>
+    <t>16.459 hr</t>
+  </si>
+  <si>
+    <t>93.736 hr</t>
+  </si>
+  <si>
+    <t>17.402 hr</t>
+  </si>
+  <si>
+    <t>94.572 hr</t>
+  </si>
+  <si>
     <t>HoursGrouted</t>
   </si>
   <si>
@@ -1183,6 +1639,36 @@
     <t>15.379 hr</t>
   </si>
   <si>
+    <t>2.2019 hr</t>
+  </si>
+  <si>
+    <t>15.717 hr</t>
+  </si>
+  <si>
+    <t>3.3881 hr</t>
+  </si>
+  <si>
+    <t>16.004 hr</t>
+  </si>
+  <si>
+    <t>4.49 hr</t>
+  </si>
+  <si>
+    <t>16.688 hr</t>
+  </si>
+  <si>
+    <t>5.6817 hr</t>
+  </si>
+  <si>
+    <t>18.389 hr</t>
+  </si>
+  <si>
+    <t>6.0183 hr</t>
+  </si>
+  <si>
+    <t>19.035 hr</t>
+  </si>
+  <si>
     <t>HoursDelayed</t>
   </si>
   <si>
@@ -1246,6 +1732,36 @@
     <t>40.495 hr</t>
   </si>
   <si>
+    <t>4.1106 hr</t>
+  </si>
+  <si>
+    <t>44.504 hr</t>
+  </si>
+  <si>
+    <t>6.195 hr</t>
+  </si>
+  <si>
+    <t>45.758 hr</t>
+  </si>
+  <si>
+    <t>8.3806 hr</t>
+  </si>
+  <si>
+    <t>47.639 hr</t>
+  </si>
+  <si>
+    <t>10.48 hr</t>
+  </si>
+  <si>
+    <t>49.743 hr</t>
+  </si>
+  <si>
+    <t>12.521 hr</t>
+  </si>
+  <si>
+    <t>51.121 hr</t>
+  </si>
+  <si>
     <t>HoursTurn</t>
   </si>
   <si>
@@ -1309,6 +1825,36 @@
     <t>160.39 hr</t>
   </si>
   <si>
+    <t>15.024 hr</t>
+  </si>
+  <si>
+    <t>166.9 hr</t>
+  </si>
+  <si>
+    <t>18.57 hr</t>
+  </si>
+  <si>
+    <t>175.9 hr</t>
+  </si>
+  <si>
+    <t>27.106 hr</t>
+  </si>
+  <si>
+    <t>180.12 hr</t>
+  </si>
+  <si>
+    <t>35.721 hr</t>
+  </si>
+  <si>
+    <t>188.03 hr</t>
+  </si>
+  <si>
+    <t>39.388 hr</t>
+  </si>
+  <si>
+    <t>191.36 hr</t>
+  </si>
+  <si>
     <t>HoursCycle</t>
   </si>
   <si>
@@ -1370,6 +1916,36 @@
   </si>
   <si>
     <t>154.12 hr</t>
+  </si>
+  <si>
+    <t>11.593 hr</t>
+  </si>
+  <si>
+    <t>160.22 hr</t>
+  </si>
+  <si>
+    <t>20.189 hr</t>
+  </si>
+  <si>
+    <t>163.28 hr</t>
+  </si>
+  <si>
+    <t>28.301 hr</t>
+  </si>
+  <si>
+    <t>167.17 hr</t>
+  </si>
+  <si>
+    <t>36.495 hr</t>
+  </si>
+  <si>
+    <t>174.76 hr</t>
+  </si>
+  <si>
+    <t>39.681 hr</t>
+  </si>
+  <si>
+    <t>177.76 hr</t>
   </si>
   <si>
     <t>DaysRigDrilled</t>
@@ -1427,7 +2003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AD53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1462,7 +2038,7 @@
     <col min="27" max="27" width="15.85546875" customWidth="true"/>
     <col min="28" max="28" width="15.85546875" customWidth="true"/>
     <col min="29" max="29" width="9.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1479,82 +2055,82 @@
         <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>259</v>
+        <v>369</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>282</v>
+        <v>402</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>283</v>
+        <v>403</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>284</v>
+        <v>404</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>287</v>
+        <v>407</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>311</v>
+        <v>441</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>312</v>
+        <v>442</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>313</v>
+        <v>443</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>314</v>
+        <v>444</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>315</v>
+        <v>445</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>316</v>
+        <v>446</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>325</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2">
@@ -1571,37 +2147,37 @@
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0">
         <v>0</v>
@@ -1635,7 +2211,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD2" s="0"/>
     </row>
@@ -1653,37 +2229,37 @@
         <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>237</v>
+        <v>337</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="P3" s="0">
         <v>282.12</v>
@@ -1701,7 +2277,7 @@
         <v>11.170010250027488</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>288</v>
+        <v>408</v>
       </c>
       <c r="V3" s="0">
         <v>1.7292732564817892</v>
@@ -1725,7 +2301,7 @@
         <v>45861.75</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>319</v>
+        <v>449</v>
       </c>
       <c r="AD3" s="0">
         <v>2.1486103828723828</v>
@@ -1745,37 +2321,37 @@
         <v>6</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
@@ -1809,7 +2385,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD4" s="0"/>
     </row>
@@ -1827,37 +2403,37 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>261</v>
+        <v>371</v>
       </c>
       <c r="P5" s="0">
         <v>611.2399999999999</v>
@@ -1875,7 +2451,7 @@
         <v>24.200897012713739</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>289</v>
+        <v>409</v>
       </c>
       <c r="V5" s="0">
         <v>1.6053950388528753</v>
@@ -1899,7 +2475,7 @@
         <v>45862.75</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>319</v>
+        <v>449</v>
       </c>
       <c r="AD5" s="0">
         <v>1.9833975564948523</v>
@@ -1919,37 +2495,37 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
@@ -1983,7 +2559,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD6" s="0"/>
     </row>
@@ -2001,37 +2577,37 @@
         <v>9</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>262</v>
+        <v>372</v>
       </c>
       <c r="P7" s="0">
         <v>94.019999999999996</v>
@@ -2049,7 +2625,7 @@
         <v>3.72254488766335</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>290</v>
+        <v>410</v>
       </c>
       <c r="V7" s="0">
         <v>1.7611607644347884</v>
@@ -2073,7 +2649,7 @@
         <v>45863.666666666664</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="AD7" s="0">
         <v>8.5962697470886571</v>
@@ -2093,37 +2669,37 @@
         <v>6</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P8" s="0">
         <v>0</v>
@@ -2157,7 +2733,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD8" s="0"/>
     </row>
@@ -2175,37 +2751,37 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>263</v>
+        <v>373</v>
       </c>
       <c r="P9" s="0">
         <v>517.13</v>
@@ -2223,7 +2799,7 @@
         <v>20.474788744494237</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>291</v>
+        <v>411</v>
       </c>
       <c r="V9" s="0">
         <v>1.5300768369795388</v>
@@ -2247,7 +2823,7 @@
         <v>45866.729166666664</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>321</v>
+        <v>451</v>
       </c>
       <c r="AD9" s="0">
         <v>2.3443465326550643</v>
@@ -2267,37 +2843,37 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
@@ -2331,7 +2907,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD10" s="0"/>
     </row>
@@ -2349,37 +2925,37 @@
         <v>11</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>241</v>
+        <v>341</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>264</v>
+        <v>374</v>
       </c>
       <c r="P11" s="0">
         <v>517.18999999999994</v>
@@ -2397,7 +2973,7 @@
         <v>20.477164331531675</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>292</v>
+        <v>412</v>
       </c>
       <c r="V11" s="0">
         <v>1.4546936049212185</v>
@@ -2421,7 +2997,7 @@
         <v>45867.75</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>319</v>
+        <v>449</v>
       </c>
       <c r="AD11" s="0">
         <v>2.3440745614414689</v>
@@ -2441,37 +3017,37 @@
         <v>6</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
@@ -2505,7 +3081,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD12" s="0"/>
     </row>
@@ -2523,37 +3099,37 @@
         <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>242</v>
+        <v>342</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>265</v>
+        <v>375</v>
       </c>
       <c r="P13" s="0">
         <v>376.09999999999997</v>
@@ -2571,7 +3147,7 @@
         <v>14.890971412999212</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>293</v>
+        <v>413</v>
       </c>
       <c r="V13" s="0">
         <v>1.3858061658748206</v>
@@ -2595,7 +3171,7 @@
         <v>45868.770833333336</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>322</v>
+        <v>452</v>
       </c>
       <c r="AD13" s="0">
         <v>2.1489531550685337</v>
@@ -2615,37 +3191,37 @@
         <v>6</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2679,7 +3255,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD14" s="0"/>
     </row>
@@ -2697,37 +3273,37 @@
         <v>13</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>243</v>
+        <v>343</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>266</v>
+        <v>376</v>
       </c>
       <c r="P15" s="0">
         <v>470.42999999999995</v>
@@ -2745,7 +3321,7 @@
         <v>18.625790167022654</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>294</v>
+        <v>414</v>
       </c>
       <c r="V15" s="0">
         <v>1.3914040568267976</v>
@@ -2769,7 +3345,7 @@
         <v>45869.729166666664</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>321</v>
+        <v>451</v>
       </c>
       <c r="AD15" s="0">
         <v>2.0401819015055684</v>
@@ -2789,37 +3365,37 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -2853,7 +3429,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD16" s="0"/>
     </row>
@@ -2871,37 +3447,37 @@
         <v>14</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>244</v>
+        <v>344</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>267</v>
+        <v>377</v>
       </c>
       <c r="P17" s="0">
         <v>799.28999999999985</v>
@@ -2919,7 +3495,7 @@
         <v>31.646382719213349</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>295</v>
+        <v>415</v>
       </c>
       <c r="V17" s="0">
         <v>1.3903642760815893</v>
@@ -2943,7 +3519,7 @@
         <v>45870.729166666664</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>321</v>
+        <v>451</v>
       </c>
       <c r="AD17" s="0">
         <v>1.3903642760815897</v>
@@ -2963,37 +3539,37 @@
         <v>6</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
@@ -3027,7 +3603,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD18" s="0"/>
     </row>
@@ -3045,37 +3621,37 @@
         <v>15</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>245</v>
+        <v>345</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>268</v>
+        <v>378</v>
       </c>
       <c r="P19" s="0">
         <v>705.29999999999995</v>
@@ -3093,7 +3669,7 @@
         <v>27.925025625068713</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>296</v>
+        <v>416</v>
       </c>
       <c r="V19" s="0">
         <v>1.3692377766584742</v>
@@ -3117,7 +3693,7 @@
         <v>45873.791666666664</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>323</v>
+        <v>453</v>
       </c>
       <c r="AD19" s="0">
         <v>1.5756476141064144</v>
@@ -3137,37 +3713,37 @@
         <v>6</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P20" s="0">
         <v>0</v>
@@ -3201,7 +3777,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD20" s="0"/>
     </row>
@@ -3219,37 +3795,37 @@
         <v>16</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>223</v>
+        <v>313</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>246</v>
+        <v>346</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>269</v>
+        <v>379</v>
       </c>
       <c r="P21" s="0">
         <v>705.40999999999985</v>
@@ -3267,7 +3843,7 @@
         <v>27.929380867970686</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>297</v>
+        <v>417</v>
       </c>
       <c r="V21" s="0">
         <v>1.3627226532488972</v>
@@ -3291,7 +3867,7 @@
         <v>45874.75</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>319</v>
+        <v>449</v>
       </c>
       <c r="AD21" s="0">
         <v>1.3605743779153467</v>
@@ -3311,37 +3887,37 @@
         <v>6</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
@@ -3375,7 +3951,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD22" s="0"/>
     </row>
@@ -3393,37 +3969,37 @@
         <v>17</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>247</v>
+        <v>347</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="P23" s="0">
         <v>658.24000000000001</v>
@@ -3441,7 +4017,7 @@
         <v>26.061773525372516</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>298</v>
+        <v>418</v>
       </c>
       <c r="V23" s="0">
         <v>1.3675201330908109</v>
@@ -3465,7 +4041,7 @@
         <v>45875.75</v>
       </c>
       <c r="AC23" s="0" t="s">
-        <v>319</v>
+        <v>449</v>
       </c>
       <c r="AD23" s="0">
         <v>1.458074215977857</v>
@@ -3485,37 +4061,37 @@
         <v>6</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
@@ -3549,7 +4125,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD24" s="0"/>
     </row>
@@ -3567,37 +4143,37 @@
         <v>18</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>248</v>
+        <v>348</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>271</v>
+        <v>381</v>
       </c>
       <c r="P25" s="0">
         <v>658.14999999999998</v>
@@ -3615,7 +4191,7 @@
         <v>26.058210144816357</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="V25" s="0">
         <v>1.3592645006374675</v>
@@ -3639,7 +4215,7 @@
         <v>45876.75</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>319</v>
+        <v>449</v>
       </c>
       <c r="AD25" s="0">
         <v>1.458273603168373</v>
@@ -3659,37 +4235,37 @@
         <v>6</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
@@ -3723,7 +4299,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD26" s="0"/>
     </row>
@@ -3741,37 +4317,37 @@
         <v>19</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>249</v>
+        <v>349</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>272</v>
+        <v>382</v>
       </c>
       <c r="P27" s="0">
         <v>658.1099999999999</v>
@@ -3789,7 +4365,7 @@
         <v>26.056626420124729</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="V27" s="0">
         <v>1.3728561565579971</v>
@@ -3813,7 +4389,7 @@
         <v>45877.75</v>
       </c>
       <c r="AC27" s="0" t="s">
-        <v>319</v>
+        <v>449</v>
       </c>
       <c r="AD27" s="0">
         <v>1.4583622372023899</v>
@@ -3833,37 +4409,37 @@
         <v>6</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
@@ -3897,7 +4473,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD28" s="0"/>
     </row>
@@ -3915,37 +4491,37 @@
         <v>20</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>273</v>
+        <v>383</v>
       </c>
       <c r="P29" s="0">
         <v>518.02999999999997</v>
@@ -3963,7 +4539,7 @@
         <v>20.510422550055786</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>301</v>
+        <v>421</v>
       </c>
       <c r="V29" s="0">
         <v>1.3579437445536315</v>
@@ -3987,7 +4563,7 @@
         <v>45878.75</v>
       </c>
       <c r="AC29" s="0" t="s">
-        <v>319</v>
+        <v>449</v>
       </c>
       <c r="AD29" s="0">
         <v>1.5601823863893514</v>
@@ -4007,37 +4583,37 @@
         <v>6</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
@@ -4071,7 +4647,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD30" s="0"/>
     </row>
@@ -4089,37 +4665,37 @@
         <v>21</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>274</v>
+        <v>384</v>
       </c>
       <c r="P31" s="0">
         <v>564.61999999999989</v>
@@ -4137,7 +4713,7 @@
         <v>22.355065884625411</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>302</v>
+        <v>422</v>
       </c>
       <c r="V31" s="0">
         <v>1.3561132029966272</v>
@@ -4161,7 +4737,7 @@
         <v>45880.770833333336</v>
       </c>
       <c r="AC31" s="0" t="s">
-        <v>322</v>
+        <v>452</v>
       </c>
       <c r="AD31" s="0">
         <v>1.43144288480974</v>
@@ -4181,37 +4757,37 @@
         <v>6</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
@@ -4245,7 +4821,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD32" s="0"/>
     </row>
@@ -4263,37 +4839,37 @@
         <v>22</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>229</v>
+        <v>319</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>252</v>
+        <v>352</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>275</v>
+        <v>385</v>
       </c>
       <c r="P33" s="0">
         <v>564.10000000000002</v>
@@ -4311,7 +4887,7 @@
         <v>22.334477463634286</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>303</v>
+        <v>423</v>
       </c>
       <c r="V33" s="0">
         <v>1.3908541200741948</v>
@@ -4335,7 +4911,7 @@
         <v>45881.791666666664</v>
       </c>
       <c r="AC33" s="0" t="s">
-        <v>323</v>
+        <v>453</v>
       </c>
       <c r="AD33" s="0">
         <v>1.4327624208850835</v>
@@ -4355,37 +4931,37 @@
         <v>6</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
@@ -4419,7 +4995,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD34" s="0"/>
     </row>
@@ -4437,37 +5013,37 @@
         <v>23</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>253</v>
+        <v>353</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>276</v>
+        <v>386</v>
       </c>
       <c r="P35" s="0">
         <v>517.12</v>
@@ -4485,7 +5061,7 @@
         <v>20.47439281332133</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>304</v>
+        <v>424</v>
       </c>
       <c r="V35" s="0">
         <v>1.362482406894622</v>
@@ -4509,7 +5085,7 @@
         <v>45882.729166666664</v>
       </c>
       <c r="AC35" s="0" t="s">
-        <v>321</v>
+        <v>451</v>
       </c>
       <c r="AD35" s="0">
         <v>1.5629279115510435</v>
@@ -4529,37 +5105,37 @@
         <v>6</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
@@ -4615,37 +5191,37 @@
         <v>24</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>231</v>
+        <v>321</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>254</v>
+        <v>354</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>277</v>
+        <v>387</v>
       </c>
       <c r="P37" s="0">
         <v>470.08999999999997</v>
@@ -4663,7 +5239,7 @@
         <v>18.612328507143843</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>305</v>
+        <v>425</v>
       </c>
       <c r="V37" s="0">
         <v>1.3545860202458304</v>
@@ -4687,7 +5263,7 @@
         <v>45883.770833333336</v>
       </c>
       <c r="AC37" s="0" t="s">
-        <v>322</v>
+        <v>452</v>
       </c>
       <c r="AD37" s="0">
         <v>1.6118348646428255</v>
@@ -4707,37 +5283,37 @@
         <v>6</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
@@ -4771,7 +5347,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD38" s="0"/>
     </row>
@@ -4789,37 +5365,37 @@
         <v>25</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>232</v>
+        <v>322</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>255</v>
+        <v>355</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>278</v>
+        <v>388</v>
       </c>
       <c r="P39" s="0">
         <v>470.05999999999995</v>
@@ -4837,7 +5413,7 @@
         <v>18.611140713625126</v>
       </c>
       <c r="U39" s="0" t="s">
-        <v>306</v>
+        <v>426</v>
       </c>
       <c r="V39" s="0">
         <v>1.3570366474909408</v>
@@ -4861,7 +5437,7 @@
         <v>45884.520833333336</v>
       </c>
       <c r="AC39" s="0" t="s">
-        <v>324</v>
+        <v>454</v>
       </c>
       <c r="AD39" s="0">
         <v>1.8268627658652199</v>
@@ -4881,37 +5457,37 @@
         <v>6</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
@@ -4945,7 +5521,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="0" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="AD40" s="0"/>
     </row>
@@ -4963,37 +5539,37 @@
         <v>26</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>256</v>
+        <v>356</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>279</v>
+        <v>389</v>
       </c>
       <c r="P41" s="0">
         <v>470.46999999999997</v>
@@ -5011,7 +5587,7 @@
         <v>18.627373891714278</v>
       </c>
       <c r="U41" s="0" t="s">
-        <v>307</v>
+        <v>427</v>
       </c>
       <c r="V41" s="0">
         <v>1.3534919171410766</v>
@@ -5035,7 +5611,7 @@
         <v>45887.791666666664</v>
       </c>
       <c r="AC41" s="0" t="s">
-        <v>323</v>
+        <v>453</v>
       </c>
       <c r="AD41" s="0">
         <v>1.6642174135877115</v>
@@ -5055,37 +5631,37 @@
         <v>27</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>257</v>
+        <v>357</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="P42" s="0">
         <v>200.33999999999997</v>
@@ -5103,7 +5679,7 @@
         <v>23.310617489636265</v>
       </c>
       <c r="U42" s="0" t="s">
-        <v>308</v>
+        <v>428</v>
       </c>
       <c r="V42" s="0">
         <v>1.3696762865331629</v>
@@ -5127,7 +5703,7 @@
         <v>45888.75</v>
       </c>
       <c r="AC42" s="0" t="s">
-        <v>319</v>
+        <v>449</v>
       </c>
       <c r="AD42" s="0">
         <v>1.1153715688380805</v>
@@ -5147,37 +5723,37 @@
         <v>28</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>258</v>
+        <v>358</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>281</v>
+        <v>391</v>
       </c>
       <c r="P43" s="0">
         <v>329.46000000000004</v>
@@ -5186,19 +5762,19 @@
         <v>47.065714285714293</v>
       </c>
       <c r="R43" s="0">
-        <v>1.2378326759089493</v>
+        <v>1.3526054498702342</v>
       </c>
       <c r="S43" s="0">
-        <v>16.148</v>
+        <v>17.643999999999998</v>
       </c>
       <c r="T43" s="0">
         <v>13.044348422565065</v>
       </c>
       <c r="U43" s="0" t="s">
-        <v>309</v>
+        <v>429</v>
       </c>
       <c r="V43" s="0">
-        <v>1.2379307480062409</v>
+        <v>1.3526164303828407</v>
       </c>
       <c r="W43" s="0">
         <v>37</v>
@@ -5219,10 +5795,922 @@
         <v>45888.770833333336</v>
       </c>
       <c r="AC43" s="0" t="s">
-        <v>322</v>
+        <v>452</v>
       </c>
       <c r="AD43" s="0">
         <v>2.8364774384586893</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="0">
+        <v>12</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="P44" s="0">
+        <v>480.60000000000002</v>
+      </c>
+      <c r="Q44" s="0">
+        <v>40.050000000000004</v>
+      </c>
+      <c r="R44" s="0">
+        <v>1.3464859910678195</v>
+      </c>
+      <c r="S44" s="0">
+        <v>75.295999999999992</v>
+      </c>
+      <c r="T44" s="0">
+        <v>55.920349233898314</v>
+      </c>
+      <c r="U44" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="V44" s="0">
+        <v>1.3464865837131856</v>
+      </c>
+      <c r="W44" s="0">
+        <v>79</v>
+      </c>
+      <c r="X44" s="0">
+        <v>76.75</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>45889.37939814815</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>45889.745034722226</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>45889.291666666664</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>45889.791666666664</v>
+      </c>
+      <c r="AC44" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="AD44" s="0">
+        <v>1.412723652164015</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="0">
+        <v>7</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="P45" s="0">
+        <v>252.05999999999997</v>
+      </c>
+      <c r="Q45" s="0">
+        <v>36.008571428571422</v>
+      </c>
+      <c r="R45" s="0">
+        <v>1.3535287763467834</v>
+      </c>
+      <c r="S45" s="0">
+        <v>13.507999999999999</v>
+      </c>
+      <c r="T45" s="0">
+        <v>9.9798411442716866</v>
+      </c>
+      <c r="U45" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="V45" s="0">
+        <v>1.3535285586938861</v>
+      </c>
+      <c r="W45" s="0">
+        <v>20</v>
+      </c>
+      <c r="X45" s="0">
+        <v>76.75</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>45889.451319444444</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>45889.722708333335</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>45889.291666666664</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>45889.791666666664</v>
+      </c>
+      <c r="AC45" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="AD45" s="0">
+        <v>2.0040399151523336</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="0">
+        <v>14</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="P46" s="0">
+        <v>561.12000000000012</v>
+      </c>
+      <c r="Q46" s="0">
+        <v>40.080000000000005</v>
+      </c>
+      <c r="R46" s="0">
+        <v>1.3476199390797823</v>
+      </c>
+      <c r="S46" s="0">
+        <v>87.98399999999998</v>
+      </c>
+      <c r="T46" s="0">
+        <v>65.289276658603868</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="V46" s="0">
+        <v>1.3476026156648404</v>
+      </c>
+      <c r="W46" s="0">
+        <v>86</v>
+      </c>
+      <c r="X46" s="0">
+        <v>76.5</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>45890.338958333334</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>45890.486689814818</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>45890.291666666664</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>45890.833333333336</v>
+      </c>
+      <c r="AC46" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="AD46" s="0">
+        <v>1.3172147770864737</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="0">
+        <v>5</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="P47" s="0">
+        <v>176.84</v>
+      </c>
+      <c r="Q47" s="0">
+        <v>35.368000000000002</v>
+      </c>
+      <c r="R47" s="0">
+        <v>1.3450051509283327</v>
+      </c>
+      <c r="S47" s="0">
+        <v>9.4159999999999986</v>
+      </c>
+      <c r="T47" s="0">
+        <v>7.001646861671845</v>
+      </c>
+      <c r="U47" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="V47" s="0">
+        <v>1.3448264652627249</v>
+      </c>
+      <c r="W47" s="0">
+        <v>16</v>
+      </c>
+      <c r="X47" s="0">
+        <v>76.5</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>45890.343576388892</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>45890.718611111108</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>45890.270833333336</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>45890.833333333336</v>
+      </c>
+      <c r="AC47" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="AD47" s="0">
+        <v>2.2851766614489808</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="0">
+        <v>13</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="P48" s="0">
+        <v>520.75000000000011</v>
+      </c>
+      <c r="Q48" s="0">
+        <v>40.057692307692314</v>
+      </c>
+      <c r="R48" s="0">
+        <v>1.3593913326729181</v>
+      </c>
+      <c r="S48" s="0">
+        <v>82.367999999999995</v>
+      </c>
+      <c r="T48" s="0">
+        <v>60.592013865069802</v>
+      </c>
+      <c r="U48" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="V48" s="0">
+        <v>1.3593870668075558</v>
+      </c>
+      <c r="W48" s="0">
+        <v>37</v>
+      </c>
+      <c r="X48" s="0">
+        <v>81.75</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>45891.346030092594</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>45891.701701388891</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>45891.291666666664</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>45891.75</v>
+      </c>
+      <c r="AC48" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD48" s="0">
+        <v>0.61064152913606706</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="0">
+        <v>6</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="P49" s="0">
+        <v>240.13</v>
+      </c>
+      <c r="Q49" s="0">
+        <v>40.021666666666668</v>
+      </c>
+      <c r="R49" s="0">
+        <v>1.3007682498526034</v>
+      </c>
+      <c r="S49" s="0">
+        <v>36.344000000000001</v>
+      </c>
+      <c r="T49" s="0">
+        <v>27.940394218759888</v>
+      </c>
+      <c r="U49" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="V49" s="0">
+        <v>1.3007690484051124</v>
+      </c>
+      <c r="W49" s="0">
+        <v>80</v>
+      </c>
+      <c r="X49" s="0">
+        <v>81.75</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>45891.512858796297</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>45891.688333333332</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>45891.291666666664</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>45891.770833333336</v>
+      </c>
+      <c r="AC49" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="AD49" s="0">
+        <v>2.8632380550409691</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="0">
+        <v>14</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="P50" s="0">
+        <v>561.83999999999992</v>
+      </c>
+      <c r="Q50" s="0">
+        <v>40.131428571428565</v>
+      </c>
+      <c r="R50" s="0">
+        <v>1.3283909179346389</v>
+      </c>
+      <c r="S50" s="0">
+        <v>86.839999999999989</v>
+      </c>
+      <c r="T50" s="0">
+        <v>65.373052462699604</v>
+      </c>
+      <c r="U50" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="V50" s="0">
+        <v>1.3283760927264172</v>
+      </c>
+      <c r="W50" s="0">
+        <v>89</v>
+      </c>
+      <c r="X50" s="0">
+        <v>63.5</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>45892.329907407409</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>45892.688877314817</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>45892.291666666664</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>45892.729166666664</v>
+      </c>
+      <c r="AC50" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD50" s="0">
+        <v>1.3614172299936798</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="0">
+        <v>14</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="P51" s="0">
+        <v>560.18999999999994</v>
+      </c>
+      <c r="Q51" s="0">
+        <v>40.013571428571424</v>
+      </c>
+      <c r="R51" s="0">
+        <v>1.3014818064125411</v>
+      </c>
+      <c r="S51" s="0">
+        <v>84.832000000000008</v>
+      </c>
+      <c r="T51" s="0">
+        <v>65.181066244980229</v>
+      </c>
+      <c r="U51" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="V51" s="0">
+        <v>1.3014822384335136</v>
+      </c>
+      <c r="W51" s="0">
+        <v>86</v>
+      </c>
+      <c r="X51" s="0">
+        <v>63.399999999999999</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>45892.340567129628</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>45892.670162037037</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>45892.291666666664</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>45892.729166666664</v>
+      </c>
+      <c r="AC51" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD51" s="0">
+        <v>1.3194015525424623</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="0">
+        <v>4</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="P52" s="0">
+        <v>160.34</v>
+      </c>
+      <c r="Q52" s="0">
+        <v>40.085000000000001</v>
+      </c>
+      <c r="R52" s="0">
+        <v>1.326737387096304</v>
+      </c>
+      <c r="S52" s="0">
+        <v>24.751999999999999</v>
+      </c>
+      <c r="T52" s="0">
+        <v>18.656406150984719</v>
+      </c>
+      <c r="U52" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="V52" s="0">
+        <v>1.3267292639152555</v>
+      </c>
+      <c r="W52" s="0">
+        <v>0</v>
+      </c>
+      <c r="X52" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>45894.355231481481</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>45894.507997685185</v>
+      </c>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD52" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="0">
+        <v>5</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="P53" s="0">
+        <v>200.09999999999999</v>
+      </c>
+      <c r="Q53" s="0">
+        <v>40.019999999999996</v>
+      </c>
+      <c r="R53" s="0">
+        <v>1.307751860949492</v>
+      </c>
+      <c r="S53" s="0">
+        <v>30.447999999999997</v>
+      </c>
+      <c r="T53" s="0">
+        <v>23.282692221604353</v>
+      </c>
+      <c r="U53" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="V53" s="0">
+        <v>1.3077525446884037</v>
+      </c>
+      <c r="W53" s="0">
+        <v>0</v>
+      </c>
+      <c r="X53" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>45894.359918981485</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>45894.498749999999</v>
+      </c>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD53" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5231,7 +6719,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5265,40 +6753,40 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>326</v>
+        <v>458</v>
       </c>
       <c r="E1" t="s">
-        <v>347</v>
+        <v>489</v>
       </c>
       <c r="F1" t="s">
-        <v>368</v>
+        <v>520</v>
       </c>
       <c r="G1" t="s">
-        <v>389</v>
+        <v>551</v>
       </c>
       <c r="H1" t="s">
-        <v>410</v>
+        <v>582</v>
       </c>
       <c r="I1" t="s">
-        <v>431</v>
+        <v>613</v>
       </c>
       <c r="J1" t="s">
-        <v>452</v>
+        <v>644</v>
       </c>
       <c r="K1" t="s">
-        <v>453</v>
+        <v>645</v>
       </c>
       <c r="L1" t="s">
-        <v>454</v>
+        <v>646</v>
       </c>
       <c r="M1" t="s">
-        <v>455</v>
+        <v>647</v>
       </c>
       <c r="N1" t="s">
-        <v>311</v>
+        <v>441</v>
       </c>
       <c r="O1" t="s">
-        <v>312</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2">
@@ -5356,19 +6844,19 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="H3" t="s">
-        <v>288</v>
+        <v>408</v>
       </c>
       <c r="I3" t="s">
-        <v>237</v>
+        <v>337</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -5441,22 +6929,22 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>459</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>490</v>
       </c>
       <c r="F5" t="s">
-        <v>369</v>
+        <v>521</v>
       </c>
       <c r="G5" t="s">
-        <v>390</v>
+        <v>552</v>
       </c>
       <c r="H5" t="s">
-        <v>411</v>
+        <v>583</v>
       </c>
       <c r="I5" t="s">
-        <v>432</v>
+        <v>614</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -5529,22 +7017,22 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>328</v>
+        <v>460</v>
       </c>
       <c r="E7" t="s">
-        <v>349</v>
+        <v>491</v>
       </c>
       <c r="F7" t="s">
-        <v>370</v>
+        <v>522</v>
       </c>
       <c r="G7" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="H7" t="s">
-        <v>412</v>
+        <v>584</v>
       </c>
       <c r="I7" t="s">
-        <v>433</v>
+        <v>615</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -5617,22 +7105,22 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>329</v>
+        <v>461</v>
       </c>
       <c r="E9" t="s">
-        <v>350</v>
+        <v>492</v>
       </c>
       <c r="F9" t="s">
-        <v>371</v>
+        <v>523</v>
       </c>
       <c r="G9" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="H9" t="s">
-        <v>413</v>
+        <v>585</v>
       </c>
       <c r="I9" t="s">
-        <v>434</v>
+        <v>616</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -5705,22 +7193,22 @@
         <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>330</v>
+        <v>462</v>
       </c>
       <c r="E11" t="s">
-        <v>351</v>
+        <v>493</v>
       </c>
       <c r="F11" t="s">
-        <v>372</v>
+        <v>524</v>
       </c>
       <c r="G11" t="s">
-        <v>393</v>
+        <v>555</v>
       </c>
       <c r="H11" t="s">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="I11" t="s">
-        <v>435</v>
+        <v>617</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -5793,22 +7281,22 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>331</v>
+        <v>463</v>
       </c>
       <c r="E13" t="s">
-        <v>352</v>
+        <v>494</v>
       </c>
       <c r="F13" t="s">
-        <v>373</v>
+        <v>525</v>
       </c>
       <c r="G13" t="s">
-        <v>394</v>
+        <v>556</v>
       </c>
       <c r="H13" t="s">
-        <v>415</v>
+        <v>587</v>
       </c>
       <c r="I13" t="s">
-        <v>436</v>
+        <v>618</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -5881,22 +7369,22 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>332</v>
+        <v>464</v>
       </c>
       <c r="E15" t="s">
-        <v>353</v>
+        <v>495</v>
       </c>
       <c r="F15" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="G15" t="s">
-        <v>395</v>
+        <v>557</v>
       </c>
       <c r="H15" t="s">
-        <v>416</v>
+        <v>588</v>
       </c>
       <c r="I15" t="s">
-        <v>437</v>
+        <v>619</v>
       </c>
       <c r="J15">
         <v>7</v>
@@ -5969,22 +7457,22 @@
         <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>333</v>
+        <v>465</v>
       </c>
       <c r="E17" t="s">
-        <v>354</v>
+        <v>496</v>
       </c>
       <c r="F17" t="s">
-        <v>375</v>
+        <v>527</v>
       </c>
       <c r="G17" t="s">
-        <v>396</v>
+        <v>558</v>
       </c>
       <c r="H17" t="s">
-        <v>417</v>
+        <v>589</v>
       </c>
       <c r="I17" t="s">
-        <v>438</v>
+        <v>620</v>
       </c>
       <c r="J17">
         <v>8</v>
@@ -6057,22 +7545,22 @@
         <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>334</v>
+        <v>466</v>
       </c>
       <c r="E19" t="s">
-        <v>355</v>
+        <v>497</v>
       </c>
       <c r="F19" t="s">
-        <v>376</v>
+        <v>528</v>
       </c>
       <c r="G19" t="s">
-        <v>397</v>
+        <v>559</v>
       </c>
       <c r="H19" t="s">
-        <v>418</v>
+        <v>590</v>
       </c>
       <c r="I19" t="s">
-        <v>439</v>
+        <v>621</v>
       </c>
       <c r="J19">
         <v>9</v>
@@ -6145,22 +7633,22 @@
         <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>335</v>
+        <v>467</v>
       </c>
       <c r="E21" t="s">
-        <v>356</v>
+        <v>498</v>
       </c>
       <c r="F21" t="s">
-        <v>377</v>
+        <v>529</v>
       </c>
       <c r="G21" t="s">
-        <v>398</v>
+        <v>560</v>
       </c>
       <c r="H21" t="s">
-        <v>419</v>
+        <v>591</v>
       </c>
       <c r="I21" t="s">
-        <v>440</v>
+        <v>622</v>
       </c>
       <c r="J21">
         <v>10</v>
@@ -6233,22 +7721,22 @@
         <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>336</v>
+        <v>468</v>
       </c>
       <c r="E23" t="s">
-        <v>357</v>
+        <v>499</v>
       </c>
       <c r="F23" t="s">
-        <v>378</v>
+        <v>530</v>
       </c>
       <c r="G23" t="s">
-        <v>399</v>
+        <v>561</v>
       </c>
       <c r="H23" t="s">
-        <v>420</v>
+        <v>592</v>
       </c>
       <c r="I23" t="s">
-        <v>441</v>
+        <v>623</v>
       </c>
       <c r="J23">
         <v>11</v>
@@ -6321,22 +7809,22 @@
         <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>337</v>
+        <v>469</v>
       </c>
       <c r="E25" t="s">
-        <v>358</v>
+        <v>500</v>
       </c>
       <c r="F25" t="s">
-        <v>379</v>
+        <v>531</v>
       </c>
       <c r="G25" t="s">
-        <v>400</v>
+        <v>562</v>
       </c>
       <c r="H25" t="s">
-        <v>421</v>
+        <v>593</v>
       </c>
       <c r="I25" t="s">
-        <v>442</v>
+        <v>624</v>
       </c>
       <c r="J25">
         <v>12</v>
@@ -6409,22 +7897,22 @@
         <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>338</v>
+        <v>470</v>
       </c>
       <c r="E27" t="s">
-        <v>359</v>
+        <v>501</v>
       </c>
       <c r="F27" t="s">
-        <v>380</v>
+        <v>532</v>
       </c>
       <c r="G27" t="s">
-        <v>401</v>
+        <v>563</v>
       </c>
       <c r="H27" t="s">
-        <v>422</v>
+        <v>594</v>
       </c>
       <c r="I27" t="s">
-        <v>443</v>
+        <v>625</v>
       </c>
       <c r="J27">
         <v>13</v>
@@ -6497,22 +7985,22 @@
         <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>339</v>
+        <v>471</v>
       </c>
       <c r="E29" t="s">
-        <v>360</v>
+        <v>502</v>
       </c>
       <c r="F29" t="s">
-        <v>381</v>
+        <v>533</v>
       </c>
       <c r="G29" t="s">
-        <v>402</v>
+        <v>564</v>
       </c>
       <c r="H29" t="s">
-        <v>423</v>
+        <v>595</v>
       </c>
       <c r="I29" t="s">
-        <v>444</v>
+        <v>626</v>
       </c>
       <c r="J29">
         <v>14</v>
@@ -6585,22 +8073,22 @@
         <v>173</v>
       </c>
       <c r="D31" t="s">
-        <v>340</v>
+        <v>472</v>
       </c>
       <c r="E31" t="s">
-        <v>361</v>
+        <v>503</v>
       </c>
       <c r="F31" t="s">
-        <v>382</v>
+        <v>534</v>
       </c>
       <c r="G31" t="s">
-        <v>403</v>
+        <v>565</v>
       </c>
       <c r="H31" t="s">
-        <v>424</v>
+        <v>596</v>
       </c>
       <c r="I31" t="s">
-        <v>445</v>
+        <v>627</v>
       </c>
       <c r="J31">
         <v>15</v>
@@ -6673,22 +8161,22 @@
         <v>185</v>
       </c>
       <c r="D33" t="s">
-        <v>341</v>
+        <v>473</v>
       </c>
       <c r="E33" t="s">
-        <v>362</v>
+        <v>504</v>
       </c>
       <c r="F33" t="s">
-        <v>383</v>
+        <v>535</v>
       </c>
       <c r="G33" t="s">
-        <v>404</v>
+        <v>566</v>
       </c>
       <c r="H33" t="s">
-        <v>425</v>
+        <v>597</v>
       </c>
       <c r="I33" t="s">
-        <v>446</v>
+        <v>628</v>
       </c>
       <c r="J33">
         <v>16</v>
@@ -6761,22 +8249,22 @@
         <v>196</v>
       </c>
       <c r="D35" t="s">
-        <v>342</v>
+        <v>474</v>
       </c>
       <c r="E35" t="s">
-        <v>363</v>
+        <v>505</v>
       </c>
       <c r="F35" t="s">
-        <v>384</v>
+        <v>536</v>
       </c>
       <c r="G35" t="s">
-        <v>405</v>
+        <v>567</v>
       </c>
       <c r="H35" t="s">
-        <v>426</v>
+        <v>598</v>
       </c>
       <c r="I35" t="s">
-        <v>447</v>
+        <v>629</v>
       </c>
       <c r="J35">
         <v>17</v>
@@ -6849,22 +8337,22 @@
         <v>206</v>
       </c>
       <c r="D37" t="s">
-        <v>343</v>
+        <v>475</v>
       </c>
       <c r="E37" t="s">
-        <v>364</v>
+        <v>506</v>
       </c>
       <c r="F37" t="s">
-        <v>385</v>
+        <v>537</v>
       </c>
       <c r="G37" t="s">
-        <v>406</v>
+        <v>568</v>
       </c>
       <c r="H37" t="s">
-        <v>427</v>
+        <v>599</v>
       </c>
       <c r="I37" t="s">
-        <v>448</v>
+        <v>630</v>
       </c>
       <c r="J37">
         <v>18</v>
@@ -6937,22 +8425,22 @@
         <v>216</v>
       </c>
       <c r="D39" t="s">
-        <v>344</v>
+        <v>476</v>
       </c>
       <c r="E39" t="s">
-        <v>365</v>
+        <v>507</v>
       </c>
       <c r="F39" t="s">
-        <v>386</v>
+        <v>538</v>
       </c>
       <c r="G39" t="s">
-        <v>407</v>
+        <v>569</v>
       </c>
       <c r="H39" t="s">
-        <v>428</v>
+        <v>600</v>
       </c>
       <c r="I39" t="s">
-        <v>449</v>
+        <v>631</v>
       </c>
       <c r="J39">
         <v>19</v>
@@ -7025,22 +8513,22 @@
         <v>226</v>
       </c>
       <c r="D41" t="s">
-        <v>345</v>
+        <v>477</v>
       </c>
       <c r="E41" t="s">
-        <v>366</v>
+        <v>508</v>
       </c>
       <c r="F41" t="s">
-        <v>387</v>
+        <v>539</v>
       </c>
       <c r="G41" t="s">
-        <v>408</v>
+        <v>570</v>
       </c>
       <c r="H41" t="s">
-        <v>429</v>
+        <v>601</v>
       </c>
       <c r="I41" t="s">
-        <v>450</v>
+        <v>632</v>
       </c>
       <c r="J41">
         <v>20</v>
@@ -7075,19 +8563,19 @@
         <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F42" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G42" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="H42" t="s">
-        <v>308</v>
+        <v>428</v>
       </c>
       <c r="I42" t="s">
-        <v>257</v>
+        <v>357</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -7119,22 +8607,22 @@
         <v>233</v>
       </c>
       <c r="D43" t="s">
-        <v>346</v>
+        <v>478</v>
       </c>
       <c r="E43" t="s">
-        <v>367</v>
+        <v>509</v>
       </c>
       <c r="F43" t="s">
-        <v>388</v>
+        <v>540</v>
       </c>
       <c r="G43" t="s">
-        <v>409</v>
+        <v>571</v>
       </c>
       <c r="H43" t="s">
-        <v>430</v>
+        <v>602</v>
       </c>
       <c r="I43" t="s">
-        <v>451</v>
+        <v>633</v>
       </c>
       <c r="J43">
         <v>21</v>
@@ -7143,7 +8631,7 @@
         <v>47.024377682403419</v>
       </c>
       <c r="L43">
-        <v>1.4026463011271708</v>
+        <v>1.4060917937307598</v>
       </c>
       <c r="M43">
         <v>1.7749745885620396</v>
@@ -7153,6 +8641,476 @@
       </c>
       <c r="O43">
         <v>2328.25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>479</v>
+      </c>
+      <c r="E44" t="s">
+        <v>510</v>
+      </c>
+      <c r="F44" t="s">
+        <v>541</v>
+      </c>
+      <c r="G44" t="s">
+        <v>572</v>
+      </c>
+      <c r="H44" t="s">
+        <v>603</v>
+      </c>
+      <c r="I44" t="s">
+        <v>634</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>40.055294117647065</v>
+      </c>
+      <c r="L44">
+        <v>1.3533070845425907</v>
+      </c>
+      <c r="M44">
+        <v>1.325267157068152</v>
+      </c>
+      <c r="N44">
+        <v>105</v>
+      </c>
+      <c r="O44">
+        <v>143.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>240</v>
+      </c>
+      <c r="D45" t="s">
+        <v>480</v>
+      </c>
+      <c r="E45" t="s">
+        <v>511</v>
+      </c>
+      <c r="F45" t="s">
+        <v>542</v>
+      </c>
+      <c r="G45" t="s">
+        <v>573</v>
+      </c>
+      <c r="H45" t="s">
+        <v>604</v>
+      </c>
+      <c r="I45" t="s">
+        <v>635</v>
+      </c>
+      <c r="J45">
+        <v>22</v>
+      </c>
+      <c r="K45">
+        <v>46.703083333333318</v>
+      </c>
+      <c r="L45">
+        <v>1.4045586993755177</v>
+      </c>
+      <c r="M45">
+        <v>1.78165566058759</v>
+      </c>
+      <c r="N45">
+        <v>790</v>
+      </c>
+      <c r="O45">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>31</v>
+      </c>
+      <c r="D46" t="s">
+        <v>481</v>
+      </c>
+      <c r="E46" t="s">
+        <v>512</v>
+      </c>
+      <c r="F46" t="s">
+        <v>543</v>
+      </c>
+      <c r="G46" t="s">
+        <v>574</v>
+      </c>
+      <c r="H46" t="s">
+        <v>605</v>
+      </c>
+      <c r="I46" t="s">
+        <v>636</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>40.066451612903229</v>
+      </c>
+      <c r="L46">
+        <v>1.3507308727913485</v>
+      </c>
+      <c r="M46">
+        <v>1.3216305983667487</v>
+      </c>
+      <c r="N46">
+        <v>191</v>
+      </c>
+      <c r="O46">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>245</v>
+      </c>
+      <c r="D47" t="s">
+        <v>482</v>
+      </c>
+      <c r="E47" t="s">
+        <v>513</v>
+      </c>
+      <c r="F47" t="s">
+        <v>544</v>
+      </c>
+      <c r="G47" t="s">
+        <v>575</v>
+      </c>
+      <c r="H47" t="s">
+        <v>606</v>
+      </c>
+      <c r="I47" t="s">
+        <v>637</v>
+      </c>
+      <c r="J47">
+        <v>23</v>
+      </c>
+      <c r="K47">
+        <v>46.471755102040802</v>
+      </c>
+      <c r="L47">
+        <v>1.4033396741895423</v>
+      </c>
+      <c r="M47">
+        <v>1.7919315993806797</v>
+      </c>
+      <c r="N47">
+        <v>806</v>
+      </c>
+      <c r="O47">
+        <v>2481.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
+        <v>483</v>
+      </c>
+      <c r="E48" t="s">
+        <v>514</v>
+      </c>
+      <c r="F48" t="s">
+        <v>545</v>
+      </c>
+      <c r="G48" t="s">
+        <v>576</v>
+      </c>
+      <c r="H48" t="s">
+        <v>607</v>
+      </c>
+      <c r="I48" t="s">
+        <v>638</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>40.063863636363642</v>
+      </c>
+      <c r="L48">
+        <v>1.3532883846597734</v>
+      </c>
+      <c r="M48">
+        <v>1.1115656460940473</v>
+      </c>
+      <c r="N48">
+        <v>228</v>
+      </c>
+      <c r="O48">
+        <v>301.75</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>251</v>
+      </c>
+      <c r="D49" t="s">
+        <v>484</v>
+      </c>
+      <c r="E49" t="s">
+        <v>515</v>
+      </c>
+      <c r="F49" t="s">
+        <v>546</v>
+      </c>
+      <c r="G49" t="s">
+        <v>577</v>
+      </c>
+      <c r="H49" t="s">
+        <v>608</v>
+      </c>
+      <c r="I49" t="s">
+        <v>639</v>
+      </c>
+      <c r="J49">
+        <v>24</v>
+      </c>
+      <c r="K49">
+        <v>46.317569721115518</v>
+      </c>
+      <c r="L49">
+        <v>1.4008877867205918</v>
+      </c>
+      <c r="M49">
+        <v>1.8175405186394913</v>
+      </c>
+      <c r="N49">
+        <v>886</v>
+      </c>
+      <c r="O49">
+        <v>2563.25</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>58</v>
+      </c>
+      <c r="D50" t="s">
+        <v>485</v>
+      </c>
+      <c r="E50" t="s">
+        <v>516</v>
+      </c>
+      <c r="F50" t="s">
+        <v>547</v>
+      </c>
+      <c r="G50" t="s">
+        <v>578</v>
+      </c>
+      <c r="H50" t="s">
+        <v>609</v>
+      </c>
+      <c r="I50" t="s">
+        <v>640</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>40.080172413793115</v>
+      </c>
+      <c r="L50">
+        <v>1.347275072813791</v>
+      </c>
+      <c r="M50">
+        <v>1.1718746491043035</v>
+      </c>
+      <c r="N50">
+        <v>317</v>
+      </c>
+      <c r="O50">
+        <v>365.25</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>265</v>
+      </c>
+      <c r="D51" t="s">
+        <v>486</v>
+      </c>
+      <c r="E51" t="s">
+        <v>517</v>
+      </c>
+      <c r="F51" t="s">
+        <v>548</v>
+      </c>
+      <c r="G51" t="s">
+        <v>579</v>
+      </c>
+      <c r="H51" t="s">
+        <v>610</v>
+      </c>
+      <c r="I51" t="s">
+        <v>641</v>
+      </c>
+      <c r="J51">
+        <v>25</v>
+      </c>
+      <c r="K51">
+        <v>45.984528301886776</v>
+      </c>
+      <c r="L51">
+        <v>1.3956361728488216</v>
+      </c>
+      <c r="M51">
+        <v>1.7912237430721012</v>
+      </c>
+      <c r="N51">
+        <v>972</v>
+      </c>
+      <c r="O51">
+        <v>2626.6500000000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
+        <v>487</v>
+      </c>
+      <c r="E52" t="s">
+        <v>518</v>
+      </c>
+      <c r="F52" t="s">
+        <v>549</v>
+      </c>
+      <c r="G52" t="s">
+        <v>580</v>
+      </c>
+      <c r="H52" t="s">
+        <v>611</v>
+      </c>
+      <c r="I52" t="s">
+        <v>642</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>40.080483870967754</v>
+      </c>
+      <c r="L52">
+        <v>1.3459495367558207</v>
+      </c>
+      <c r="M52">
+        <v>1.096269833033058</v>
+      </c>
+      <c r="N52">
+        <v>317</v>
+      </c>
+      <c r="O52">
+        <v>365.25</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>270</v>
+      </c>
+      <c r="D53" t="s">
+        <v>488</v>
+      </c>
+      <c r="E53" t="s">
+        <v>519</v>
+      </c>
+      <c r="F53" t="s">
+        <v>550</v>
+      </c>
+      <c r="G53" t="s">
+        <v>581</v>
+      </c>
+      <c r="H53" t="s">
+        <v>612</v>
+      </c>
+      <c r="I53" t="s">
+        <v>643</v>
+      </c>
+      <c r="J53">
+        <v>26</v>
+      </c>
+      <c r="K53">
+        <v>45.874074074074059</v>
+      </c>
+      <c r="L53">
+        <v>1.3940086982532582</v>
+      </c>
+      <c r="M53">
+        <v>1.7580529330152104</v>
+      </c>
+      <c r="N53">
+        <v>972</v>
+      </c>
+      <c r="O53">
+        <v>2626.6500000000001</v>
       </c>
     </row>
   </sheetData>
